--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\21\trunk\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AC9C4A-0AD8-4000-8B13-40F88C26C459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85E0FF1-33AE-418D-99D1-A04F55771043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,183 +145,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <b/>
@@ -852,11 +676,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -914,14 +738,14 @@
         <v>73</v>
       </c>
       <c r="D2">
-        <f>QUOTIENT(A2,3)*500 + 1000</f>
+        <f t="shared" ref="D2:D8" si="0">QUOTIENT(A2,3)*500 + 1000</f>
         <v>1000</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>7.0974754609387704E+62</v>
+        <v>4.1828320873357002E+76</v>
       </c>
       <c r="G2">
         <v>1000</v>
@@ -947,15 +771,14 @@
         <v>73</v>
       </c>
       <c r="D3">
-        <f>QUOTIENT(A3,3)*500 + 1000</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <f>F2*4</f>
-        <v>2.8389901843755082E+63</v>
+        <v>4.1828320873357002E+76</v>
       </c>
       <c r="G3">
         <v>1000</v>
@@ -978,17 +801,17 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>9003</v>
+        <v>73</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F31" si="0">F3*4</f>
-        <v>1.1355960737502033E+64</v>
+        <v>4.1828320873357002E+76</v>
       </c>
       <c r="G4">
         <v>1000</v>
@@ -1008,21 +831,20 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>73</v>
       </c>
       <c r="D5">
-        <f>QUOTIENT(A5,3)*500 + 1000</f>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
-        <v>4.5423842950008131E+64</v>
+        <v>4.1828320873357002E+76</v>
       </c>
       <c r="G5">
         <v>1000</v>
@@ -1042,21 +864,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>73</v>
       </c>
       <c r="D6">
-        <f>QUOTIENT(A6,3)*500 + 1000</f>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>1.8169537180003252E+65</v>
+        <v>4.1828320873357002E+76</v>
       </c>
       <c r="G6">
         <v>1000</v>
@@ -1076,20 +897,20 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>9003</v>
+        <v>73</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1500</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>7.2678148720013009E+65</v>
+        <v>4.1828320873357002E+76</v>
       </c>
       <c r="G7">
         <v>1000</v>
@@ -1109,21 +930,20 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>73</v>
       </c>
       <c r="D8">
-        <f>QUOTIENT(A8,3)*500 + 1000</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>2.9071259488005204E+66</v>
+        <v>4.1828320873357002E+76</v>
       </c>
       <c r="G8">
         <v>1000</v>
@@ -1149,15 +969,14 @@
         <v>73</v>
       </c>
       <c r="D9">
-        <f>QUOTIENT(A9,3)*500 + 1000</f>
+        <f t="shared" ref="D9:D10" si="1">QUOTIENT(A9,3)*500 + 1000</f>
         <v>2000</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1628503795202081E+67</v>
+        <v>4.1828320873357002E+76</v>
       </c>
       <c r="G9">
         <v>1000</v>
@@ -1169,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1180,17 +999,17 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>9003</v>
+        <v>73</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>4.6514015180808326E+67</v>
+        <v>4.1828320873357002E+76</v>
       </c>
       <c r="G10">
         <v>1000</v>
@@ -1202,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>3600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1210,21 +1029,20 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>73</v>
       </c>
       <c r="D11">
-        <f>QUOTIENT(A11,3)*500 + 1000</f>
+        <f t="shared" ref="D11" si="2">QUOTIENT(A11,3)*500 + 1000</f>
         <v>2500</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>1.860560607232333E+68</v>
+        <v>4.1828320873357002E+76</v>
       </c>
       <c r="G11">
         <v>1000</v>
@@ -1236,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>3800</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1244,21 +1062,20 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>73</v>
       </c>
       <c r="D12">
-        <f>QUOTIENT(A12,3)*500 + 1000</f>
+        <f t="shared" ref="D12:D15" si="3">QUOTIENT(A12,3)*500 + 1000</f>
         <v>2500</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>7.4422424289293321E+68</v>
+        <v>4.1828320873357002E+76</v>
       </c>
       <c r="G12">
         <v>1000</v>
@@ -1270,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4000</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1278,20 +1095,20 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>9003</v>
+        <v>73</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>2500</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>2.9768969715717328E+69</v>
+        <v>4.1828320873357002E+76</v>
       </c>
       <c r="G13">
         <v>1000</v>
@@ -1303,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4200</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1311,21 +1128,20 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>73</v>
       </c>
       <c r="D14">
-        <f>QUOTIENT(A14,3)*500 + 1000</f>
+        <f t="shared" si="3"/>
         <v>3000</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1907587886286931E+70</v>
+        <v>4.1828320873357002E+76</v>
       </c>
       <c r="G14">
         <v>1000</v>
@@ -1337,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4400</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1345,21 +1161,20 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>73</v>
       </c>
       <c r="D15">
-        <f>QUOTIENT(A15,3)*500 + 1000</f>
+        <f t="shared" si="3"/>
         <v>3000</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>4.7630351545147726E+70</v>
+        <v>4.1828320873357002E+76</v>
       </c>
       <c r="G15">
         <v>1000</v>
@@ -1371,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1382,17 +1197,17 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>9003</v>
+        <v>73</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <f t="shared" ref="D16" si="4">QUOTIENT(A16,3)*500 + 1000</f>
+        <v>3000</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>1.905214061805909E+71</v>
+        <v>4.1828320873357002E+76</v>
       </c>
       <c r="G16">
         <v>1000</v>
@@ -1404,604 +1219,59 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>73</v>
-      </c>
-      <c r="D17">
-        <f>QUOTIENT(A17,3)*500 + 1000</f>
-        <v>3500</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>7.6208562472236361E+71</v>
-      </c>
-      <c r="G17">
-        <v>1000</v>
-      </c>
-      <c r="H17">
-        <v>8</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18">
-        <v>73</v>
-      </c>
-      <c r="D18">
-        <f>QUOTIENT(A18,3)*500 + 1000</f>
-        <v>3500</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0483424988894544E+72</v>
-      </c>
-      <c r="G18">
-        <v>1000</v>
-      </c>
-      <c r="H18">
-        <v>8</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19">
-        <v>9003</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2193369995557818E+73</v>
-      </c>
-      <c r="G19">
-        <v>1000</v>
-      </c>
-      <c r="H19">
-        <v>8</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <v>73</v>
-      </c>
-      <c r="D20">
-        <f>QUOTIENT(A20,3)*500 + 1000</f>
-        <v>4000</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="0"/>
-        <v>4.8773479982231271E+73</v>
-      </c>
-      <c r="G20">
-        <v>1000</v>
-      </c>
-      <c r="H20">
-        <v>8</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21">
-        <v>73</v>
-      </c>
-      <c r="D21">
-        <f>QUOTIENT(A21,3)*500 + 1000</f>
-        <v>4000</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="0"/>
-        <v>1.9509391992892508E+74</v>
-      </c>
-      <c r="G21">
-        <v>1000</v>
-      </c>
-      <c r="H21">
-        <v>8</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>5020</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22">
-        <v>9003</v>
-      </c>
-      <c r="D22">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="0"/>
-        <v>7.8037567971570034E+74</v>
-      </c>
-      <c r="G22">
-        <v>1000</v>
-      </c>
-      <c r="H22">
-        <v>8</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>5040</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23">
-        <v>73</v>
-      </c>
-      <c r="D23">
-        <f>QUOTIENT(A23,3)*500 + 1000</f>
-        <v>4500</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="0"/>
-        <v>3.1215027188628013E+75</v>
-      </c>
-      <c r="G23">
-        <v>1000</v>
-      </c>
-      <c r="H23">
-        <v>8</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>4982</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24">
-        <v>73</v>
-      </c>
-      <c r="D24">
-        <f>QUOTIENT(A24,3)*500 + 1000</f>
-        <v>4500</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2486010875451205E+76</v>
-      </c>
-      <c r="G24">
-        <v>1000</v>
-      </c>
-      <c r="H24">
-        <v>8</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>4972</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25">
-        <v>9003</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="0"/>
-        <v>4.9944043501804821E+76</v>
-      </c>
-      <c r="G25">
-        <v>1000</v>
-      </c>
-      <c r="H25">
-        <v>8</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>4962</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26">
-        <v>73</v>
-      </c>
-      <c r="D26">
-        <f>QUOTIENT(A26,3)*500 + 1000</f>
-        <v>5000</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2">
-        <f t="shared" si="0"/>
-        <v>1.9977617400721929E+77</v>
-      </c>
-      <c r="G26">
-        <v>1000</v>
-      </c>
-      <c r="H26">
-        <v>8</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>4952</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27">
-        <v>73</v>
-      </c>
-      <c r="D27">
-        <f>QUOTIENT(A27,3)*500 + 1000</f>
-        <v>5000</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2">
-        <f t="shared" si="0"/>
-        <v>7.9910469602887714E+77</v>
-      </c>
-      <c r="G27">
-        <v>1000</v>
-      </c>
-      <c r="H27">
-        <v>8</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>4942</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28">
-        <v>9003</v>
-      </c>
-      <c r="D28">
-        <v>11</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2">
-        <f t="shared" si="0"/>
-        <v>3.1964187841155086E+78</v>
-      </c>
-      <c r="G28">
-        <v>1000</v>
-      </c>
-      <c r="H28">
-        <v>8</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>4932</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29">
-        <v>73</v>
-      </c>
-      <c r="D29">
-        <f>QUOTIENT(A29,3)*500 + 1000</f>
-        <v>5500</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2785675136462034E+79</v>
-      </c>
-      <c r="G29">
-        <v>1000</v>
-      </c>
-      <c r="H29">
-        <v>8</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>4922</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30">
-        <v>73</v>
-      </c>
-      <c r="D30">
-        <f>QUOTIENT(A30,3)*500 + 1000</f>
-        <v>5500</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2">
-        <f t="shared" si="0"/>
-        <v>5.1142700545848137E+79</v>
-      </c>
-      <c r="G30">
-        <v>1000</v>
-      </c>
-      <c r="H30">
-        <v>8</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>4912</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31">
-        <v>9003</v>
-      </c>
-      <c r="D31">
-        <v>12</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2">
-        <f t="shared" si="0"/>
-        <v>2.0457080218339255E+80</v>
-      </c>
-      <c r="G31">
-        <v>1000</v>
-      </c>
-      <c r="H31">
-        <v>8</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>4902</v>
+        <v>3200</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 B11:B12 B14:B15 B17:B18 A8:A31 E20:E31 F3:J31 A3:E7 C8:E19">
-    <cfRule type="expression" dxfId="17" priority="50">
+  <conditionalFormatting sqref="A2:J4 E5:J6 C7:J8 A5:A16">
+    <cfRule type="expression" dxfId="9" priority="59">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B10">
-    <cfRule type="expression" dxfId="16" priority="26">
-      <formula>$C8=5</formula>
+  <conditionalFormatting sqref="B5:B16">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$C5=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="15" priority="21">
+  <conditionalFormatting sqref="C5:D5">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$C5=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:D6">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$C6=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:J10">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$C9=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:J11">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$C11=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:J12">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$C12=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:J14">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$C13=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="14" priority="20">
-      <formula>$C16=5</formula>
+  <conditionalFormatting sqref="C15:J15">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C15=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="13" priority="19">
-      <formula>$C19=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B21">
-    <cfRule type="expression" dxfId="12" priority="18">
-      <formula>$C20=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="11" priority="17">
-      <formula>$C22=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C31">
-    <cfRule type="expression" dxfId="10" priority="16">
-      <formula>$C20=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B24">
-    <cfRule type="expression" dxfId="9" priority="14">
-      <formula>$C23=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="8" priority="13">
-      <formula>$C25=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B27">
-    <cfRule type="expression" dxfId="7" priority="12">
-      <formula>$C26=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="6" priority="11">
-      <formula>$C28=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:B30">
-    <cfRule type="expression" dxfId="5" priority="10">
-      <formula>$C29=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="4" priority="9">
-      <formula>$C31=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D22">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$C20=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$C23=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D28">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$C26=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D31">
+  <conditionalFormatting sqref="C16:J16">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$C29=5</formula>
+      <formula>$C16=5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85E0FF1-33AE-418D-99D1-A04F55771043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FFF4D8-4E0D-416B-8335-C211E629469E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,13 +108,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,12 +139,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -141,11 +157,87 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -676,11 +768,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -727,333 +819,323 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>73</v>
       </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D8" si="0">QUOTIENT(A2,3)*500 + 1000</f>
-        <v>1000</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4.1828320873357002E+76</v>
-      </c>
-      <c r="G2">
-        <v>1000</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
+      <c r="D2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>8.9701247246919192E+53</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="3">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>73</v>
       </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>4.1828320873357002E+76</v>
-      </c>
-      <c r="G3">
-        <v>1000</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
+      <c r="D3" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2.7439816612659474E+54</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>73</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>4.1828320873357002E+76</v>
-      </c>
-      <c r="G4">
-        <v>1000</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
+      <c r="D4" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4.7992410754395231E+54</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="3">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>73</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
+      <c r="D5" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1.4680988172606046E+55</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="3">
+        <v>8</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <v>73</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>7.8546958518943741E+55</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="3">
+        <v>8</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>73</v>
+      </c>
+      <c r="D7" s="3">
         <v>1500</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>4.1828320873357002E+76</v>
-      </c>
-      <c r="G5">
-        <v>1000</v>
-      </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2.5297664566420924E+56</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="3">
+        <v>8</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C8" s="3">
         <v>73</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>4.1828320873357002E+76</v>
-      </c>
-      <c r="G6">
-        <v>1000</v>
-      </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="D8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>9.5090359261565638E+56</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="C9" s="3">
         <v>73</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>4.1828320873357002E+76</v>
-      </c>
-      <c r="G7">
-        <v>1000</v>
-      </c>
-      <c r="H7">
-        <v>8</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="D9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>4.9768730312666087E+57</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
+      <c r="C10" s="3">
         <v>73</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
+      <c r="D10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>6.9297980087356248E+57</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3">
+        <v>73</v>
+      </c>
+      <c r="D11" s="3">
         <v>2000</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>4.1828320873357002E+76</v>
-      </c>
-      <c r="G8">
-        <v>1000</v>
-      </c>
-      <c r="H8">
-        <v>8</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>73</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ref="D9:D10" si="1">QUOTIENT(A9,3)*500 + 1000</f>
-        <v>2000</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>4.1828320873357002E+76</v>
-      </c>
-      <c r="G9">
-        <v>1000</v>
-      </c>
-      <c r="H9">
-        <v>8</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>73</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>4.1828320873357002E+76</v>
-      </c>
-      <c r="G10">
-        <v>1000</v>
-      </c>
-      <c r="H10">
-        <v>8</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>73</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ref="D11" si="2">QUOTIENT(A11,3)*500 + 1000</f>
-        <v>2500</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>4.1828320873357002E+76</v>
-      </c>
-      <c r="G11">
-        <v>1000</v>
-      </c>
-      <c r="H11">
-        <v>8</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2.6048135017784418E+58</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="3">
+        <v>8</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
         <v>3200</v>
       </c>
     </row>
@@ -1065,17 +1147,16 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>73</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ref="D12:D15" si="3">QUOTIENT(A12,3)*500 + 1000</f>
-        <v>2500</v>
+        <v>88</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1000</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>4.1828320873357002E+76</v>
+        <v>5.0501544861957627E+58</v>
       </c>
       <c r="G12">
         <v>1000</v>
@@ -1098,17 +1179,16 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>73</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="3"/>
-        <v>2500</v>
+        <v>88</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1100</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" s="2">
-        <v>4.1828320873357002E+76</v>
+        <v>9.7911272024005688E+58</v>
       </c>
       <c r="G13">
         <v>1000</v>
@@ -1131,17 +1211,16 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>73</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>88</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1200</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" s="2">
-        <v>4.1828320873357002E+76</v>
+        <v>1.8982819665345237E+59</v>
       </c>
       <c r="G14">
         <v>1000</v>
@@ -1164,17 +1243,16 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>73</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>88</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1300</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>4.1828320873357002E+76</v>
+        <v>3.6803468589261977E+59</v>
       </c>
       <c r="G15">
         <v>1000</v>
@@ -1197,17 +1275,16 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>73</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ref="D16" si="4">QUOTIENT(A16,3)*500 + 1000</f>
-        <v>3000</v>
+        <v>88</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1400</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>4.1828320873357002E+76</v>
+        <v>7.1353746391719693E+59</v>
       </c>
       <c r="G16">
         <v>1000</v>
@@ -1222,56 +1299,551 @@
         <v>3200</v>
       </c>
     </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>88</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1.3833905659694637E+60</v>
+      </c>
+      <c r="G17">
+        <v>1000</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>88</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>6.3113687934728755E+60</v>
+      </c>
+      <c r="G18">
+        <v>1000</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>88</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>5.1483774163965303E+61</v>
+      </c>
+      <c r="G19">
+        <v>1000</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>88</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>4.1996896218572601E+62</v>
+      </c>
+      <c r="G20">
+        <v>1000</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>88</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2.4140092521195271E+64</v>
+      </c>
+      <c r="G21">
+        <v>1000</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3">
+        <v>9001</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3.2305692336872761E+70</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3">
+        <v>9001</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3.391322358755555E+71</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3">
+        <v>9001</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3.5600745593272318E+72</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3">
+        <v>9001</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>3.7372238693993552E+73</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="3">
+        <v>8</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3">
+        <v>9001</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>3.9231881291406675E+74</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3">
+        <v>9001</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4.1184059704467071E+75</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>8</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="3">
+        <v>9001</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>4.3233378515361362E+76</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="3">
+        <v>8</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3">
+        <v>9001</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>4.5384671430285744E+77</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H29" s="3">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3">
+        <v>9001</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>5.881853417365032E+78</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H30" s="3">
+        <v>8</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3">
+        <v>9001</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>9.4109654677840511E+79</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="3">
+        <v>8</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>4140</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J4 E5:J6 C7:J8 A5:A16">
-    <cfRule type="expression" dxfId="9" priority="59">
+  <conditionalFormatting sqref="A2:J3 C7:C8 A4:C4 E4:J8 A5:A31 B20:B31 D4:D31">
+    <cfRule type="expression" dxfId="12" priority="63">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B16">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>$C5=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:D5">
-    <cfRule type="expression" dxfId="7" priority="8">
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>$C5=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:D6">
-    <cfRule type="expression" dxfId="6" priority="7">
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>$C6=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:J10">
-    <cfRule type="expression" dxfId="5" priority="6">
+  <conditionalFormatting sqref="C9:C10 E9:J10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>$C9=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:J11">
-    <cfRule type="expression" dxfId="4" priority="5">
+  <conditionalFormatting sqref="C11 E11:J11">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>$C11=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:J12">
-    <cfRule type="expression" dxfId="3" priority="4">
+  <conditionalFormatting sqref="C12 E12:J12 C17">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>$C12=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:J14">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="C13:C14 C22 G17:J18 G21:J22 G25:J26 G29:J30 E29:E30 E25:E26 E21:E22 E17:E18 E13:J14 C18:C19 C24 C26 C28 C30">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$C13=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:J15">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="C15 C23 G19:J19 G23:J23 G27:J27 G31:J31 E31 E27 E23 E19 E15:J15 C20 C25 C27 C29 C31">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$C15=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:J16">
+  <conditionalFormatting sqref="C16 G20:J20 G24:J24 G28:J28 E28 E24 E20 E16:J16 C21">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>$C16=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:B19">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$C17=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:F29">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C22=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30:F31">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$C16=5</formula>
+      <formula>$C30=5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FFF4D8-4E0D-416B-8335-C211E629469E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F082F7E7-1494-488D-9DE1-082B84968310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,12 +87,15 @@
     <t>1-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1-3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,8 +119,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,6 +138,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -139,15 +155,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -166,8 +185,15 @@
     <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -768,11 +794,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1683,167 +1709,335 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+    <row r="29" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="6">
         <v>9001</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="6">
         <v>1700</v>
       </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
-        <v>4.5384671430285744E+77</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H29" s="3">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
+        <f>F28*4</f>
+        <v>1.7293351406144545E+77</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H29" s="6">
+        <v>8</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
         <v>4020</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+    <row r="30" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="6">
         <v>9001</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="6">
         <v>1800</v>
       </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>5.881853417365032E+78</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H30" s="3">
-        <v>8</v>
-      </c>
-      <c r="I30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30" s="3">
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" ref="F30:F33" si="0">F29*4</f>
+        <v>6.9173405624578179E+77</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H30" s="6">
+        <v>8</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
         <v>4080</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+    <row r="31" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="6">
         <v>9001</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="6">
+        <v>1900</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7669362249831272E+78</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="6">
+        <v>8</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>30</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D32" s="6">
         <v>2000</v>
       </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>9.4109654677840511E+79</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H31" s="3">
-        <v>8</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3">
-        <v>4140</v>
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
+        <f>F31*4</f>
+        <v>1.1067744899932509E+79</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="6">
+        <v>8</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>31</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D33" s="6">
+        <v>2100</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="0"/>
+        <v>4.4270979599730035E+79</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H33" s="6">
+        <v>8</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>32</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D34" s="6">
+        <v>2200</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
+        <f>F33*4</f>
+        <v>1.7708391839892014E+80</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H34" s="6">
+        <v>8</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>33</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D35" s="6">
+        <v>2300</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
+        <f>F34*4</f>
+        <v>7.0833567359568055E+80</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H35" s="6">
+        <v>8</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>34</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D36" s="6">
+        <v>2400</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" ref="F36" si="1">F35*4</f>
+        <v>2.8333426943827222E+81</v>
+      </c>
+      <c r="G36" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H36" s="6">
+        <v>8</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6">
+        <v>4440</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J3 C7:C8 A4:C4 E4:J8 A5:A31 B20:B31 D4:D31">
-    <cfRule type="expression" dxfId="12" priority="63">
+  <conditionalFormatting sqref="A2:J3 C7:C8 A4:C4 E4:J8 A5:A31 B20:B31 A32:B36 D4:D36">
+    <cfRule type="expression" dxfId="12" priority="64">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B16">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>$C5=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>$C5=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>$C6=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C10 E9:J10">
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>$C9=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11 E11:J11">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>$C11=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12 E12:J12 C17">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>$C12=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C14 C22 G17:J18 G21:J22 G25:J26 G29:J30 E29:E30 E25:E26 E21:E22 E17:E18 E13:J14 C18:C19 C24 C26 C28 C30">
-    <cfRule type="expression" dxfId="5" priority="7">
+  <conditionalFormatting sqref="C13:C14 C22 G17:J18 G21:J22 G25:J26 G29:J30 E29:E30 E25:E26 E21:E22 E17:E18 E13:J14 C18:C19 C24 C26 C28 C30 E32:E33 C33 G32:J33 C36 E35:E36 G35:J36">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>$C13=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15 C23 G19:J19 G23:J23 G27:J27 G31:J31 E31 E27 E23 E19 E15:J15 C20 C25 C27 C29 C31">
-    <cfRule type="expression" dxfId="4" priority="6">
+  <conditionalFormatting sqref="C15 C23 G19:J19 G23:J23 G27:J27 G31:J31 E31 E27 E23 E19 E15:J15 C20 C25 C27 C29 E34 C31:C32 G34:J34 C34:C35">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>$C15=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16 G20:J20 G24:J24 G28:J28 E28 E24 E20 E16:J16 C21">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C16=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B19">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>$C17=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F29">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="F22:F36">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$C22=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F31">
+  <conditionalFormatting sqref="O31">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$C30=5</formula>
+      <formula>$C31=5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F082F7E7-1494-488D-9DE1-082B84968310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C678F541-0462-416D-BAD4-8042B3B1399F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,7 +197,29 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -794,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -1534,7 +1556,8 @@
         <v>1</v>
       </c>
       <c r="F23" s="3">
-        <v>3.391322358755555E+71</v>
+        <f>F22*4</f>
+        <v>1.2922276934749104E+71</v>
       </c>
       <c r="G23" s="3">
         <v>1000</v>
@@ -1566,7 +1589,8 @@
         <v>1</v>
       </c>
       <c r="F24" s="3">
-        <v>3.5600745593272318E+72</v>
+        <f t="shared" ref="F24:F37" si="0">F23*4</f>
+        <v>5.1689107738996417E+71</v>
       </c>
       <c r="G24" s="3">
         <v>1000</v>
@@ -1598,7 +1622,8 @@
         <v>1</v>
       </c>
       <c r="F25" s="3">
-        <v>3.7372238693993552E+73</v>
+        <f t="shared" si="0"/>
+        <v>2.0675643095598567E+72</v>
       </c>
       <c r="G25" s="3">
         <v>1000</v>
@@ -1630,7 +1655,8 @@
         <v>1</v>
       </c>
       <c r="F26" s="3">
-        <v>3.9231881291406675E+74</v>
+        <f t="shared" si="0"/>
+        <v>8.2702572382394267E+72</v>
       </c>
       <c r="G26" s="3">
         <v>1000</v>
@@ -1662,7 +1688,8 @@
         <v>1</v>
       </c>
       <c r="F27" s="3">
-        <v>4.1184059704467071E+75</v>
+        <f t="shared" si="0"/>
+        <v>3.3081028952957707E+73</v>
       </c>
       <c r="G27" s="3">
         <v>1000</v>
@@ -1694,7 +1721,8 @@
         <v>1</v>
       </c>
       <c r="F28" s="3">
-        <v>4.3233378515361362E+76</v>
+        <f t="shared" si="0"/>
+        <v>1.3232411581183083E+74</v>
       </c>
       <c r="G28" s="3">
         <v>1000</v>
@@ -1725,9 +1753,9 @@
       <c r="E29" s="6">
         <v>1</v>
       </c>
-      <c r="F29" s="6">
-        <f>F28*4</f>
-        <v>1.7293351406144545E+77</v>
+      <c r="F29" s="3">
+        <f t="shared" si="0"/>
+        <v>5.2929646324732331E+74</v>
       </c>
       <c r="G29" s="6">
         <v>1000</v>
@@ -1758,9 +1786,9 @@
       <c r="E30" s="6">
         <v>1</v>
       </c>
-      <c r="F30" s="6">
-        <f t="shared" ref="F30:F33" si="0">F29*4</f>
-        <v>6.9173405624578179E+77</v>
+      <c r="F30" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1171858529892932E+75</v>
       </c>
       <c r="G30" s="6">
         <v>1000</v>
@@ -1791,9 +1819,9 @@
       <c r="E31" s="6">
         <v>1</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="3">
         <f t="shared" si="0"/>
-        <v>2.7669362249831272E+78</v>
+        <v>8.468743411957173E+75</v>
       </c>
       <c r="G31" s="6">
         <v>1000</v>
@@ -1824,9 +1852,9 @@
       <c r="E32" s="6">
         <v>1</v>
       </c>
-      <c r="F32" s="6">
-        <f>F31*4</f>
-        <v>1.1067744899932509E+79</v>
+      <c r="F32" s="3">
+        <f t="shared" si="0"/>
+        <v>3.3874973647828692E+76</v>
       </c>
       <c r="G32" s="6">
         <v>1000</v>
@@ -1857,9 +1885,9 @@
       <c r="E33" s="6">
         <v>1</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="3">
         <f t="shared" si="0"/>
-        <v>4.4270979599730035E+79</v>
+        <v>1.3549989459131477E+77</v>
       </c>
       <c r="G33" s="6">
         <v>1000</v>
@@ -1890,9 +1918,9 @@
       <c r="E34" s="6">
         <v>1</v>
       </c>
-      <c r="F34" s="6">
-        <f>F33*4</f>
-        <v>1.7708391839892014E+80</v>
+      <c r="F34" s="3">
+        <f t="shared" si="0"/>
+        <v>5.4199957836525907E+77</v>
       </c>
       <c r="G34" s="6">
         <v>1000</v>
@@ -1923,9 +1951,9 @@
       <c r="E35" s="6">
         <v>1</v>
       </c>
-      <c r="F35" s="6">
-        <f>F34*4</f>
-        <v>7.0833567359568055E+80</v>
+      <c r="F35" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1679983134610363E+78</v>
       </c>
       <c r="G35" s="6">
         <v>1000</v>
@@ -1956,9 +1984,9 @@
       <c r="E36" s="6">
         <v>1</v>
       </c>
-      <c r="F36" s="6">
-        <f t="shared" ref="F36" si="1">F35*4</f>
-        <v>2.8333426943827222E+81</v>
+      <c r="F36" s="3">
+        <f t="shared" si="0"/>
+        <v>8.6719932538441451E+78</v>
       </c>
       <c r="G36" s="6">
         <v>1000</v>
@@ -1973,70 +2001,268 @@
         <v>4440</v>
       </c>
     </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>35</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D37" s="6">
+        <v>2500</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="0"/>
+        <v>3.468797301537658E+79</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H37" s="6">
+        <v>8</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>36</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D38" s="6">
+        <v>2600</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <f>F37*4</f>
+        <v>1.3875189206150632E+80</v>
+      </c>
+      <c r="G38" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H38" s="6">
+        <v>8</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>37</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D39" s="6">
+        <v>2700</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" ref="F39:F40" si="1">F38*4</f>
+        <v>5.5500756824602529E+80</v>
+      </c>
+      <c r="G39" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H39" s="6">
+        <v>8</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>38</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D40" s="6">
+        <v>2800</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="1"/>
+        <v>2.2200302729841012E+81</v>
+      </c>
+      <c r="G40" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H40" s="6">
+        <v>8</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>39</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D41" s="6">
+        <v>2900</v>
+      </c>
+      <c r="E41" s="6">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" ref="F41:F42" si="2">F40*5</f>
+        <v>1.1100151364920505E+82</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H41" s="6">
+        <v>8</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>40</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D42" s="6">
+        <v>3000</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="2"/>
+        <v>5.5500756824602521E+82</v>
+      </c>
+      <c r="G42" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H42" s="6">
+        <v>8</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6">
+        <v>4800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J3 C7:C8 A4:C4 E4:J8 A5:A31 B20:B31 A32:B36 D4:D36">
-    <cfRule type="expression" dxfId="12" priority="64">
+  <conditionalFormatting sqref="A2:J3 C7:C8 A4:C4 E4:J8 A5:A31 B20:B31 A32:B42 D4:D42">
+    <cfRule type="expression" dxfId="13" priority="65">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B16">
+    <cfRule type="expression" dxfId="12" priority="15">
+      <formula>$C5=5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
     <cfRule type="expression" dxfId="11" priority="14">
       <formula>$C5=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
+  <conditionalFormatting sqref="C6">
     <cfRule type="expression" dxfId="10" priority="13">
-      <formula>$C5=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="9" priority="12">
       <formula>$C6=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C10 E9:J10">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>$C9=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11 E11:J11">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>$C11=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12 E12:J12 C17">
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>$C12=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C14 C22 G17:J18 G21:J22 G25:J26 G29:J30 E29:E30 E25:E26 E21:E22 E17:E18 E13:J14 C18:C19 C24 C26 C28 C30 E32:E33 C33 G32:J33 C36 E35:E36 G35:J36">
-    <cfRule type="expression" dxfId="5" priority="8">
+  <conditionalFormatting sqref="C13:C14 C22 G17:J18 G21:J22 G25:J26 G29:J30 E29:E30 E25:E26 E21:E22 E17:E18 E13:J14 C18:C19 C24 C26 C28 C30 E32:E33 C33 G32:J33 C36:C37 C40:C41 G35:J38 G40:J41 E35:E38 E40:E41">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>$C13=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15 C23 G19:J19 G23:J23 G27:J27 G31:J31 E31 E27 E23 E19 E15:J15 C20 C25 C27 C29 E34 C31:C32 G34:J34 C34:C35">
-    <cfRule type="expression" dxfId="4" priority="7">
+  <conditionalFormatting sqref="C15 C23 G19:J19 G23:J23 G27:J27 G31:J31 E31 E27 E23 E19 E15:J15 C20 C25 C27 C29 E34 C31:C32 G34:J34 C34:C35 C38:C39 C42 G39:J39 G42:J42 E39 E42">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>$C15=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16 G20:J20 G24:J24 G28:J28 E28 E24 E20 E16:J16 C21">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>$C16=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B19">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$C17=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F36">
-    <cfRule type="expression" dxfId="1" priority="3">
+  <conditionalFormatting sqref="F22:F42">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$C22=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O31">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="N31">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$C31=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C678F541-0462-416D-BAD4-8042B3B1399F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC3BE37-8F53-44AB-AF6A-F603F9D499D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -197,29 +197,7 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <b/>
@@ -819,8 +797,8 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2045,14 +2023,14 @@
         <v>9001</v>
       </c>
       <c r="D38" s="6">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E38" s="6">
         <v>1</v>
       </c>
       <c r="F38" s="3">
-        <f>F37*4</f>
-        <v>1.3875189206150632E+80</v>
+        <f>F37*4.5</f>
+        <v>1.5609587856919461E+80</v>
       </c>
       <c r="G38" s="6">
         <v>1000</v>
@@ -2078,14 +2056,14 @@
         <v>9001</v>
       </c>
       <c r="D39" s="6">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="E39" s="6">
         <v>1</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" ref="F39:F40" si="1">F38*4</f>
-        <v>5.5500756824602529E+80</v>
+        <f t="shared" ref="F39:F42" si="1">F38*4.5</f>
+        <v>7.024314535613757E+80</v>
       </c>
       <c r="G39" s="6">
         <v>1000</v>
@@ -2111,14 +2089,14 @@
         <v>9001</v>
       </c>
       <c r="D40" s="6">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="E40" s="6">
         <v>1</v>
       </c>
       <c r="F40" s="3">
         <f t="shared" si="1"/>
-        <v>2.2200302729841012E+81</v>
+        <v>3.1609415410261905E+81</v>
       </c>
       <c r="G40" s="6">
         <v>1000</v>
@@ -2144,14 +2122,14 @@
         <v>9001</v>
       </c>
       <c r="D41" s="6">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="E41" s="6">
         <v>1</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" ref="F41:F42" si="2">F40*5</f>
-        <v>1.1100151364920505E+82</v>
+        <f t="shared" si="1"/>
+        <v>1.4224236934617858E+82</v>
       </c>
       <c r="G41" s="6">
         <v>1000</v>
@@ -2177,14 +2155,14 @@
         <v>9001</v>
       </c>
       <c r="D42" s="6">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="E42" s="6">
         <v>1</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="2"/>
-        <v>5.5500756824602521E+82</v>
+        <f t="shared" si="1"/>
+        <v>6.4009066205780366E+82</v>
       </c>
       <c r="G42" s="6">
         <v>1000</v>
@@ -2202,67 +2180,67 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:J3 C7:C8 A4:C4 E4:J8 A5:A31 B20:B31 A32:B42 D4:D42">
-    <cfRule type="expression" dxfId="13" priority="65">
+    <cfRule type="expression" dxfId="12" priority="65">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B16">
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>$C5=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>$C5=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>$C6=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C10 E9:J10">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>$C9=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11 E11:J11">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>$C11=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12 E12:J12 C17">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>$C12=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C14 C22 G17:J18 G21:J22 G25:J26 G29:J30 E29:E30 E25:E26 E21:E22 E17:E18 E13:J14 C18:C19 C24 C26 C28 C30 E32:E33 C33 G32:J33 C36:C37 C40:C41 G35:J38 G40:J41 E35:E38 E40:E41">
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>$C13=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15 C23 G19:J19 G23:J23 G27:J27 G31:J31 E31 E27 E23 E19 E15:J15 C20 C25 C27 C29 E34 C31:C32 G34:J34 C34:C35 C38:C39 C42 G39:J39 G42:J42 E39 E42">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>$C15=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16 G20:J20 G24:J24 G28:J28 E28 E24 E20 E16:J16 C21">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>$C16=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B19">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$C17=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F42">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$C22=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$C31=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC3BE37-8F53-44AB-AF6A-F603F9D499D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389E261B-559E-4D56-8C8E-267486F78102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -794,11 +794,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38:F42"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2177,9 +2177,339 @@
         <v>4800</v>
       </c>
     </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>41</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D43" s="6">
+        <v>2528.5714285714298</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" ref="F43:F51" si="2">F42*4</f>
+        <v>2.5603626482312146E+83</v>
+      </c>
+      <c r="G43" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H43" s="6">
+        <v>8</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>42</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D44" s="6">
+        <v>2539.2857142857101</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0241450592924859E+84</v>
+      </c>
+      <c r="G44" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H44" s="6">
+        <v>8</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>43</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D45" s="6">
+        <v>2550</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" ref="F45:F52" si="3">F44*4.5</f>
+        <v>4.6086527668161861E+84</v>
+      </c>
+      <c r="G45" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H45" s="6">
+        <v>8</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6">
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>44</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D46" s="6">
+        <v>2560.7142857142899</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="3"/>
+        <v>2.0738937450672838E+85</v>
+      </c>
+      <c r="G46" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H46" s="6">
+        <v>8</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>45</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D47" s="6">
+        <v>2571.4285714285702</v>
+      </c>
+      <c r="E47" s="6">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="3"/>
+        <v>9.3325218528027768E+85</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H47" s="6">
+        <v>8</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>46</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D48" s="6">
+        <v>2582.1428571428601</v>
+      </c>
+      <c r="E48" s="6">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="3"/>
+        <v>4.1996348337612495E+86</v>
+      </c>
+      <c r="G48" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H48" s="6">
+        <v>8</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>47</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D49" s="6">
+        <v>2592.8571428571399</v>
+      </c>
+      <c r="E49" s="6">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="3"/>
+        <v>1.8898356751925622E+87</v>
+      </c>
+      <c r="G49" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H49" s="6">
+        <v>8</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>48</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D50" s="6">
+        <v>2603.5714285714298</v>
+      </c>
+      <c r="E50" s="6">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="2"/>
+        <v>7.5593427007702489E+87</v>
+      </c>
+      <c r="G50" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H50" s="6">
+        <v>8</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>49</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D51" s="6">
+        <v>2614.2857142857101</v>
+      </c>
+      <c r="E51" s="6">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0237370803080996E+88</v>
+      </c>
+      <c r="G51" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H51" s="6">
+        <v>8</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>50</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D52" s="6">
+        <v>2625</v>
+      </c>
+      <c r="E52" s="6">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" ref="F52" si="4">F51*4.5</f>
+        <v>1.3606816861386447E+89</v>
+      </c>
+      <c r="G52" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H52" s="6">
+        <v>8</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6">
+        <v>5400</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J3 C7:C8 A4:C4 E4:J8 A5:A31 B20:B31 A32:B42 D4:D42">
+  <conditionalFormatting sqref="A2:J3 C7:C8 A4:C4 E4:J8 A5:A31 B20:B31 D4:D52 A32:B52">
     <cfRule type="expression" dxfId="12" priority="65">
       <formula>$C2=5</formula>
     </cfRule>
@@ -2214,12 +2544,12 @@
       <formula>$C12=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C14 C22 G17:J18 G21:J22 G25:J26 G29:J30 E29:E30 E25:E26 E21:E22 E17:E18 E13:J14 C18:C19 C24 C26 C28 C30 E32:E33 C33 G32:J33 C36:C37 C40:C41 G35:J38 G40:J41 E35:E38 E40:E41">
+  <conditionalFormatting sqref="C13:C14 C22 G17:J18 G21:J22 G25:J26 G29:J30 E29:E30 E25:E26 E21:E22 E17:E18 E13:J14 C18:C19 C24 C26 C28 C30 E32:E33 C33 G32:J33 C36:C37 C40:C41 G35:J38 G40:J41 E35:E38 E40:E41 C43:C44 C50:C51 C47:C48 G43:J45 G50:J52 G47:J48 E43:E45 E50:E52 E47:E48">
     <cfRule type="expression" dxfId="5" priority="9">
       <formula>$C13=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15 C23 G19:J19 G23:J23 G27:J27 G31:J31 E31 E27 E23 E19 E15:J15 C20 C25 C27 C29 E34 C31:C32 G34:J34 C34:C35 C38:C39 C42 G39:J39 G42:J42 E39 E42">
+  <conditionalFormatting sqref="C15 C23 G19:J19 G23:J23 G27:J27 G31:J31 E31 E27 E23 E19 E15:J15 C20 C25 C27 C29 E34 C31:C32 G34:J34 C34:C35 C38:C39 C42 G39:J39 G42:J42 E39 E42 C45:C46 C52 C49 G46:J46 G49:J49 E46 E49">
     <cfRule type="expression" dxfId="4" priority="8">
       <formula>$C15=5</formula>
     </cfRule>
@@ -2234,7 +2564,7 @@
       <formula>$C17=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F42">
+  <conditionalFormatting sqref="F22:F52">
     <cfRule type="expression" dxfId="1" priority="4">
       <formula>$C22=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389E261B-559E-4D56-8C8E-267486F78102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59A8061-73BD-4E67-9813-37C21883F360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,7 +197,117 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -786,7 +896,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -794,11 +904,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2194,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" ref="F43:F51" si="2">F42*4</f>
+        <f t="shared" ref="F43:F57" si="2">F42*4</f>
         <v>2.5603626482312146E+83</v>
       </c>
       <c r="G43" s="6">
@@ -2260,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" ref="F45:F52" si="3">F44*4.5</f>
+        <f t="shared" ref="F45:F49" si="3">F44*4.5</f>
         <v>4.6086527668161861E+84</v>
       </c>
       <c r="G45" s="6">
@@ -2491,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" ref="F52" si="4">F51*4.5</f>
+        <f t="shared" ref="F52:F56" si="4">F51*4.5</f>
         <v>1.3606816861386447E+89</v>
       </c>
       <c r="G52" s="6">
@@ -2507,70 +2617,235 @@
         <v>5400</v>
       </c>
     </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>51</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D53" s="6">
+        <v>2635</v>
+      </c>
+      <c r="E53" s="6">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="2"/>
+        <v>5.442726744554579E+89</v>
+      </c>
+      <c r="G53" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H53" s="6">
+        <v>8</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>52</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D54" s="6">
+        <v>2645</v>
+      </c>
+      <c r="E54" s="6">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="4"/>
+        <v>2.4492270350495606E+90</v>
+      </c>
+      <c r="G54" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H54" s="6">
+        <v>8</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6">
+        <v>5520</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>53</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D55" s="6">
+        <v>2655</v>
+      </c>
+      <c r="E55" s="6">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="2"/>
+        <v>9.7969081401982426E+90</v>
+      </c>
+      <c r="G55" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H55" s="6">
+        <v>8</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0</v>
+      </c>
+      <c r="J55" s="6">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>54</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D56" s="6">
+        <v>2665</v>
+      </c>
+      <c r="E56" s="6">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" si="4"/>
+        <v>4.4086086630892093E+91</v>
+      </c>
+      <c r="G56" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H56" s="6">
+        <v>8</v>
+      </c>
+      <c r="I56" s="6">
+        <v>0</v>
+      </c>
+      <c r="J56" s="6">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>55</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D57" s="6">
+        <v>2675</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" si="2"/>
+        <v>1.7634434652356837E+92</v>
+      </c>
+      <c r="G57" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H57" s="6">
+        <v>8</v>
+      </c>
+      <c r="I57" s="6">
+        <v>0</v>
+      </c>
+      <c r="J57" s="6">
+        <v>5700</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J3 C7:C8 A4:C4 E4:J8 A5:A31 B20:B31 D4:D52 A32:B52">
-    <cfRule type="expression" dxfId="12" priority="65">
+  <conditionalFormatting sqref="A2:J3 C7:C8 A4:C4 E4:J8 A5:A31 B20:B31 A32:B57 D4:D57">
+    <cfRule type="expression" dxfId="17" priority="65">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B16">
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="16" priority="15">
       <formula>$C5=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="15" priority="14">
       <formula>$C5=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="9" priority="13">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>$C6=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C10 E9:J10">
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>$C9=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11 E11:J11">
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>$C11=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12 E12:J12 C17">
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>$C12=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C14 C22 G17:J18 G21:J22 G25:J26 G29:J30 E29:E30 E25:E26 E21:E22 E17:E18 E13:J14 C18:C19 C24 C26 C28 C30 E32:E33 C33 G32:J33 C36:C37 C40:C41 G35:J38 G40:J41 E35:E38 E40:E41 C43:C44 C50:C51 C47:C48 G43:J45 G50:J52 G47:J48 E43:E45 E50:E52 E47:E48">
-    <cfRule type="expression" dxfId="5" priority="9">
+  <conditionalFormatting sqref="C13:C14 C22 G17:J18 G21:J22 G25:J26 G29:J30 E29:E30 E25:E26 E21:E22 E17:E18 E13:J14 C18:C19 C24 C26 C28 C30 E32:E33 C33 G32:J33 C36:C37 C40:C41 G35:J38 G40:J41 E35:E38 E40:E41 C43:C44 C50:C51 C47:C48 G43:J45 G47:J48 E43:E45 E47:E48 C53 C55 C57 G50:J57 E50:E57">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>$C13=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15 C23 G19:J19 G23:J23 G27:J27 G31:J31 E31 E27 E23 E19 E15:J15 C20 C25 C27 C29 E34 C31:C32 G34:J34 C34:C35 C38:C39 C42 G39:J39 G42:J42 E39 E42 C45:C46 C52 C49 G46:J46 G49:J49 E46 E49">
-    <cfRule type="expression" dxfId="4" priority="8">
+  <conditionalFormatting sqref="C15 C23 G19:J19 G23:J23 G27:J27 G31:J31 E31 E27 E23 E19 E15:J15 C20 C25 C27 C29 E34 C31:C32 G34:J34 C34:C35 C38:C39 C42 G39:J39 G42:J42 E39 E42 C45:C46 C52 C49 G46:J46 G49:J49 E46 E49 C54 C56">
+    <cfRule type="expression" dxfId="9" priority="8">
       <formula>$C15=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16 G20:J20 G24:J24 G28:J28 E28 E24 E20 E16:J16 C21">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>$C16=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B19">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>$C17=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F52">
-    <cfRule type="expression" dxfId="1" priority="4">
+  <conditionalFormatting sqref="F22:F57">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>$C22=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$C31=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/06.Table/TowerTable4.xlsx
+++ b/Assets/06.Table/TowerTable4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59A8061-73BD-4E67-9813-37C21883F360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9024387A-5D4E-491D-A07A-E609A31D714E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable4" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,117 +197,7 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <b/>
@@ -896,7 +786,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -904,11 +794,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2304,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" ref="F43:F57" si="2">F42*4</f>
+        <f t="shared" ref="F43:F61" si="2">F42*4</f>
         <v>2.5603626482312146E+83</v>
       </c>
       <c r="G43" s="6">
@@ -2601,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" ref="F52:F56" si="4">F51*4.5</f>
+        <f t="shared" ref="F52:F60" si="4">F51*4.5</f>
         <v>1.3606816861386447E+89</v>
       </c>
       <c r="G52" s="6">
@@ -2782,70 +2672,202 @@
         <v>5700</v>
       </c>
     </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>56</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D58" s="6">
+        <v>2685</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" si="4"/>
+        <v>7.9354955935605769E+92</v>
+      </c>
+      <c r="G58" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H58" s="6">
+        <v>8</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0</v>
+      </c>
+      <c r="J58" s="6">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>57</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D59" s="6">
+        <v>2695</v>
+      </c>
+      <c r="E59" s="6">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="2"/>
+        <v>3.1741982374242308E+93</v>
+      </c>
+      <c r="G59" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H59" s="6">
+        <v>8</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0</v>
+      </c>
+      <c r="J59" s="6">
+        <v>5820</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
+        <v>58</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D60" s="6">
+        <v>2705</v>
+      </c>
+      <c r="E60" s="6">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="4"/>
+        <v>1.4283892068409039E+94</v>
+      </c>
+      <c r="G60" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H60" s="6">
+        <v>8</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0</v>
+      </c>
+      <c r="J60" s="6">
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
+        <v>59</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D61" s="6">
+        <v>2715</v>
+      </c>
+      <c r="E61" s="6">
+        <v>1</v>
+      </c>
+      <c r="F61" s="3">
+        <f t="shared" si="2"/>
+        <v>5.7135568273636156E+94</v>
+      </c>
+      <c r="G61" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H61" s="6">
+        <v>8</v>
+      </c>
+      <c r="I61" s="6">
+        <v>0</v>
+      </c>
+      <c r="J61" s="6">
+        <v>5940</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J3 C7:C8 A4:C4 E4:J8 A5:A31 B20:B31 A32:B57 D4:D57">
-    <cfRule type="expression" dxfId="17" priority="65">
+  <conditionalFormatting sqref="A2:J3 C7:C8 A4:C4 E4:J8 A5:A31 B20:B31 A32:B61 D4:D61">
+    <cfRule type="expression" dxfId="12" priority="65">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B16">
-    <cfRule type="expression" dxfId="16" priority="15">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>$C5=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="15" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>$C5=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>$C6=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C10 E9:J10">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>$C9=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11 E11:J11">
-    <cfRule type="expression" dxfId="12" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>$C11=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12 E12:J12 C17">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>$C12=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C14 C22 G17:J18 G21:J22 G25:J26 G29:J30 E29:E30 E25:E26 E21:E22 E17:E18 E13:J14 C18:C19 C24 C26 C28 C30 E32:E33 C33 G32:J33 C36:C37 C40:C41 G35:J38 G40:J41 E35:E38 E40:E41 C43:C44 C50:C51 C47:C48 G43:J45 G47:J48 E43:E45 E47:E48 C53 C55 C57 G50:J57 E50:E57">
-    <cfRule type="expression" dxfId="10" priority="9">
+  <conditionalFormatting sqref="C13:C14 C22 G17:J18 G21:J22 G25:J26 G29:J30 E29:E30 E25:E26 E21:E22 E17:E18 E13:J14 C18:C19 C24 C26 C28 C30 E32:E33 C33 G32:J33 C36:C37 C40:C41 G35:J38 G40:J41 E35:E38 E40:E41 C43:C44 C50:C51 C47:C48 G43:J45 G47:J48 E43:E45 E47:E48 C53 C55 C57 C59 C61 G50:J61 E50:E61">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>$C13=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15 C23 G19:J19 G23:J23 G27:J27 G31:J31 E31 E27 E23 E19 E15:J15 C20 C25 C27 C29 E34 C31:C32 G34:J34 C34:C35 C38:C39 C42 G39:J39 G42:J42 E39 E42 C45:C46 C52 C49 G46:J46 G49:J49 E46 E49 C54 C56">
-    <cfRule type="expression" dxfId="9" priority="8">
+  <conditionalFormatting sqref="C15 C23 G19:J19 G23:J23 G27:J27 G31:J31 E31 E27 E23 E19 E15:J15 C20 C25 C27 C29 E34 C31:C32 G34:J34 C34:C35 C38:C39 C42 G39:J39 G42:J42 E39 E42 C45:C46 C52 C49 G46:J46 G49:J49 E46 E49 C54 C56 C58 C60">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>$C15=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16 G20:J20 G24:J24 G28:J28 E28 E24 E20 E16:J16 C21">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>$C16=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B19">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$C17=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F57">
-    <cfRule type="expression" dxfId="6" priority="4">
+  <conditionalFormatting sqref="F22:F61">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$C22=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$C31=5</formula>
     </cfRule>
   </conditionalFormatting>
